--- a/biology/Zoologie/Brachypelma_emilia/Brachypelma_emilia.xlsx
+++ b/biology/Zoologie/Brachypelma_emilia/Brachypelma_emilia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Brachypelma emilia est une espèce d'araignées mygalomorphes de la famille des Theraphosidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brachypelma emilia est une espèce d'araignées mygalomorphes de la famille des Theraphosidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Mexique[1]. Elle se rencontre au Sinaloa et au Sonora.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Mexique. Elle se rencontre au Sinaloa et au Sonora.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle a un corps de couleur sombre mais le deuxième segment de ses pattes est rose, rouge ou orange. Son thorax est de couleur claire avec un triangle noir distinctif à l'avant. Après la mue, les couleurs sont plus prononcées.
 Une femelle adulte a un corps d'environ 10 cm de long, avec des pattes de 15 cm, et pèse environ 15 à 16 grammes.
@@ -577,7 +593,9 @@
           <t>En captivité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce se rencontre en terrariophilie.
 </t>
@@ -608,7 +626,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>White, 1856 : Description of Mygale Emilia, a spider from Panama, hitherto apparently unrecorded. Proceedings of the Zoological Society of London, vol. 1856, p. 183-185.</t>
         </is>
